--- a/utils/private.apps.xlsx
+++ b/utils/private.apps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jboucas/flaski/utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF84CD33-7A28-704F-B010-CD69D8952CB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE65BC2C-95AA-8E49-AE0E-21DE7750705C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5400" yWindow="4040" windowWidth="27640" windowHeight="16940" xr2:uid="{B2DC9192-ED93-9846-BD14-404D6D4EF86E}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
